--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fasl-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fasl-Fas.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.122426</v>
+        <v>0.098742</v>
       </c>
       <c r="H2">
-        <v>0.367278</v>
+        <v>0.296226</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.76206733333333</v>
+        <v>8.333446333333333</v>
       </c>
       <c r="N2">
-        <v>56.286202</v>
+        <v>25.000339</v>
       </c>
       <c r="O2">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523786</v>
       </c>
       <c r="P2">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523787</v>
       </c>
       <c r="Q2">
-        <v>2.296964855350666</v>
+        <v>0.8228611578459999</v>
       </c>
       <c r="R2">
-        <v>20.672683698156</v>
+        <v>7.405750420614</v>
       </c>
       <c r="S2">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523786</v>
       </c>
       <c r="T2">
-        <v>0.5119187575860197</v>
+        <v>0.3294294409523787</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.122426</v>
+        <v>0.098742</v>
       </c>
       <c r="H3">
-        <v>0.367278</v>
+        <v>0.296226</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>27.159969</v>
       </c>
       <c r="O3">
-        <v>0.2470178674794013</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="P3">
-        <v>0.2470178674794012</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="Q3">
-        <v>1.108362121598</v>
+        <v>0.8939432196659999</v>
       </c>
       <c r="R3">
-        <v>9.975259094381999</v>
+        <v>8.045488976993999</v>
       </c>
       <c r="S3">
-        <v>0.2470178674794013</v>
+        <v>0.357886883212021</v>
       </c>
       <c r="T3">
-        <v>0.2470178674794012</v>
+        <v>0.357886883212021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.122426</v>
+        <v>0.098742</v>
       </c>
       <c r="H4">
-        <v>0.367278</v>
+        <v>0.296226</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.147854</v>
+        <v>4.309709000000001</v>
       </c>
       <c r="N4">
-        <v>12.443562</v>
+        <v>12.929127</v>
       </c>
       <c r="O4">
-        <v>0.1131732569020132</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="P4">
-        <v>0.1131732569020131</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="Q4">
-        <v>0.5078051738039999</v>
+        <v>0.4255492860780001</v>
       </c>
       <c r="R4">
-        <v>4.570246564235999</v>
+        <v>3.829943574702</v>
       </c>
       <c r="S4">
-        <v>0.1131732569020132</v>
+        <v>0.170367093006711</v>
       </c>
       <c r="T4">
-        <v>0.1131732569020131</v>
+        <v>0.170367093006711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.122426</v>
+        <v>0.098742</v>
       </c>
       <c r="H5">
-        <v>0.367278</v>
+        <v>0.296226</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.687234</v>
+        <v>3.600126333333333</v>
       </c>
       <c r="N5">
-        <v>14.061702</v>
+        <v>10.800379</v>
       </c>
       <c r="O5">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="P5">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="Q5">
-        <v>0.573839309684</v>
+        <v>0.355483674406</v>
       </c>
       <c r="R5">
-        <v>5.164553787156</v>
+        <v>3.199353069654</v>
       </c>
       <c r="S5">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
       <c r="T5">
-        <v>0.1278901180325659</v>
+        <v>0.1423165828288893</v>
       </c>
     </row>
   </sheetData>
